--- a/cyberinsurancetalent.xlsx
+++ b/cyberinsurancetalent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5339A-4126-4703-BC41-A07D2ABAEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957DD9B-FEA0-4E5F-A1D8-FE4ECD46C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15705" windowHeight="20985" xr2:uid="{378EEC7E-673B-433F-BD61-48E3E2C6CB5F}"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="18465" windowHeight="12285" xr2:uid="{378EEC7E-673B-433F-BD61-48E3E2C6CB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>Insurance Cyber Talent Tracker</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Vantage</t>
   </si>
   <si>
-    <t>Time Regilio</t>
-  </si>
-  <si>
     <t>Chelsea Law</t>
   </si>
   <si>
@@ -113,15 +110,9 @@
     <t>Scott Schleicher</t>
   </si>
   <si>
-    <t>Megan Koffer</t>
-  </si>
-  <si>
     <t>Janine Cooper</t>
   </si>
   <si>
-    <t>Robery O' Connell</t>
-  </si>
-  <si>
     <t>Bradley David</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>Daisy Lopez</t>
   </si>
   <si>
-    <t>Danial Law</t>
-  </si>
-  <si>
     <t>Kelly McGuinness</t>
   </si>
   <si>
@@ -177,6 +165,129 @@
   </si>
   <si>
     <t>HSB</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kristin-camme-79332322/</t>
+  </si>
+  <si>
+    <t>Zonal Leader, National Accounts, Cyber &amp; Professional Liability</t>
+  </si>
+  <si>
+    <t>Tim Regilio</t>
+  </si>
+  <si>
+    <t>Regional VP of Sales</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/timregilio/</t>
+  </si>
+  <si>
+    <t>VP, Northeast Distribution Leader</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chelsea-law-221929b8/</t>
+  </si>
+  <si>
+    <t>CHIEF</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>President - Cyber</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/charles-j-pruzinsky-b20204a/</t>
+  </si>
+  <si>
+    <t>EVP &amp; CUO - Cyber</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kevin-mcgowan-82558616/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/-marialong/</t>
+  </si>
+  <si>
+    <t>Deputy CUO - Cyber + Tech E&amp;O</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/scottschleicher/</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>Senior Vice President</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/megan-spencer/</t>
+  </si>
+  <si>
+    <t>Megan (Spenser) Koffer</t>
+  </si>
+  <si>
+    <t>Assistant Vice President</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/janine-cooper-b3416b107/</t>
+  </si>
+  <si>
+    <t>Global Cyber, Executive MD</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/roberteoconnell/</t>
+  </si>
+  <si>
+    <t>Robert O' Connell</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/matthewpolly/</t>
+  </si>
+  <si>
+    <t>Chief Recenue Officer</t>
+  </si>
+  <si>
+    <t>Global Head of Claims</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jeremy-gittler-a284288/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rebeccajonessf/</t>
+  </si>
+  <si>
+    <t>SVP, Engineering</t>
+  </si>
+  <si>
+    <t>Cyber Product Manager</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/laura-tatyana-sanchez-12682514/</t>
+  </si>
+  <si>
+    <t>Senior Executive Underwriter</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lopezdaisy/</t>
+  </si>
+  <si>
+    <t>Daniel Law</t>
+  </si>
+  <si>
+    <t>Head of Cyber Practice</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/daniel-law-0182016/</t>
+  </si>
+  <si>
+    <t>Cyber, Tech &amp; PL Development Leader</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kelly-mcguinness-515b1691/</t>
   </si>
 </sst>
 </file>
@@ -220,10 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,24 +672,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6304F00-9635-4ED8-9BA3-57B5D82F1E92}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,7 +698,7 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,8 +714,11 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -610,13 +728,19 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="2">
         <v>45707</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -624,13 +748,19 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="2">
         <v>45679</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -638,24 +768,39 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="2">
         <v>45678</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="2">
         <v>45671</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -663,24 +808,39 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="2">
         <v>45663</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="2">
         <v>45663</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -688,13 +848,19 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="2">
         <v>45642</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -702,13 +868,19 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="2">
         <v>45642</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -716,13 +888,19 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
       <c r="E14" s="2">
         <v>45642</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -730,55 +908,73 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="2">
         <v>45642</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="2">
         <v>45629</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>45251</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="2">
         <v>45581</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -786,78 +982,114 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
       <c r="E19" s="2">
         <v>45538</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="2">
         <v>45538</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="2">
         <v>45526</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="2">
         <v>45483</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
       </c>
       <c r="E23" s="2">
         <v>45461</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
       <c r="E24" s="2">
         <v>45442</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/cyberinsurancetalent.xlsx
+++ b/cyberinsurancetalent.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957DD9B-FEA0-4E5F-A1D8-FE4ECD46C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89689C9-F0A2-4005-900E-FAB2B3EC36BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="18465" windowHeight="12285" xr2:uid="{378EEC7E-673B-433F-BD61-48E3E2C6CB5F}"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="25605" windowHeight="20640" xr2:uid="{378EEC7E-673B-433F-BD61-48E3E2C6CB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="uw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Insurance Cyber Talent Tracker</t>
   </si>
@@ -47,12 +48,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Leaving</t>
-  </si>
-  <si>
-    <t>Joining</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -288,6 +283,30 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/kelly-mcguinness-515b1691/</t>
+  </si>
+  <si>
+    <t>Ethan Zaxter</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Past Firm</t>
+  </si>
+  <si>
+    <t>Chubb</t>
+  </si>
+  <si>
+    <t>Executive Underwriter</t>
+  </si>
+  <si>
+    <t>Jordan Stone</t>
+  </si>
+  <si>
+    <t>Sompo</t>
+  </si>
+  <si>
+    <t>Westfield</t>
   </si>
 </sst>
 </file>
@@ -672,10 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6304F00-9635-4ED8-9BA3-57B5D82F1E92}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,250 +723,250 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2">
         <v>45707</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>45679</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>45678</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>45671</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>45663</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>45663</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>45642</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2">
         <v>45642</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2">
         <v>45642</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2">
         <v>45642</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2">
         <v>45629</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2">
         <v>45251</v>
@@ -954,145 +974,182 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2">
         <v>45581</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2">
         <v>45538</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2">
         <v>45538</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2">
         <v>45526</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>45483</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2">
         <v>45461</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2">
         <v>45442</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA6CAA4-8FEE-4D67-BD43-AAACCA93573D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>